--- a/ApiAPSB/upload/_jlv2.xlsx
+++ b/ApiAPSB/upload/_jlv2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vahid\source\repos\AirpocketServices\ApiAPSB\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEPEHR\source\repos\AirpocketServices2024\ApiAPSB\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E61BED-E7E3-4866-8861-066204A33DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
@@ -843,6 +844,102 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -855,7 +952,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,7 +979,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,106 +994,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,53 +1015,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>927735</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>340995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="66675"/>
-          <a:ext cx="1623060" cy="274320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,17 +1279,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
@@ -1346,70 +1300,70 @@
     <col min="10" max="18" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="57" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="O1" s="60" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="O1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="74" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1446,15 +1400,15 @@
       <c r="P3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="77"/>
-    </row>
-    <row r="4" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="63"/>
+    </row>
+    <row r="4" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -1473,12 +1427,12 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -1497,12 +1451,12 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="5">
         <v>3</v>
       </c>
@@ -1521,7 +1475,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +1503,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="31"/>
@@ -1571,7 +1525,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="31"/>
@@ -1593,7 +1547,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="31"/>
@@ -1615,14 +1569,14 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="22"/>
       <c r="G11" s="14" t="s">
         <v>25</v>
@@ -1647,39 +1601,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="61" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="61" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="62"/>
-    </row>
-    <row r="13" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="45"/>
+    </row>
+    <row r="13" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="54"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1692,10 +1646,10 @@
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="19" t="s">
         <v>38</v>
       </c>
@@ -1714,10 +1668,10 @@
       <c r="P13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="64"/>
-    </row>
-    <row r="14" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="31"/>
@@ -1728,18 +1682,18 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="19"/>
       <c r="L14" s="9"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
@@ -1750,18 +1704,18 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="19"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="64"/>
-    </row>
-    <row r="16" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="31"/>
@@ -1772,18 +1726,18 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="19"/>
       <c r="L16" s="9"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="64"/>
-    </row>
-    <row r="17" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
+    </row>
+    <row r="17" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
@@ -1794,18 +1748,18 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="19"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="9"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="64"/>
-    </row>
-    <row r="18" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+    </row>
+    <row r="18" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="31"/>
@@ -1816,18 +1770,18 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="19"/>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="64"/>
-    </row>
-    <row r="19" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
@@ -1838,18 +1792,18 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="19"/>
       <c r="L19" s="9"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="9"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="64"/>
-    </row>
-    <row r="20" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="31"/>
@@ -1860,131 +1814,110 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="78"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="20"/>
       <c r="L20" s="17"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="17"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="78"/>
-    </row>
-    <row r="21" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="13"/>
       <c r="B21" s="5"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="41" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
-    </row>
-    <row r="22" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
+    </row>
+    <row r="22" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="13"/>
       <c r="B22" s="5"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-    </row>
-    <row r="23" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="78"/>
+    </row>
+    <row r="23" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="13"/>
       <c r="B23" s="5"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
-    </row>
-    <row r="24" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="78"/>
+    </row>
+    <row r="24" spans="1:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="21"/>
       <c r="B24" s="14"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="81"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R24"/>
+    <mergeCell ref="G24:N24"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C1:M1"/>
@@ -1996,15 +1929,35 @@
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="D21:N21"/>
     <mergeCell ref="D22:N23"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R24"/>
-    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>